--- a/Data2/DataDefinitions.xlsx
+++ b/Data2/DataDefinitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="10425" yWindow="-195" windowWidth="27030" windowHeight="11115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="141">
   <si>
     <t>DataFile</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Ront Left Impact</t>
-  </si>
-  <si>
     <t>Front Right Impact</t>
   </si>
   <si>
@@ -374,6 +371,174 @@
   </si>
   <si>
     <t>2018-11-10T15:16:52.00</t>
+  </si>
+  <si>
+    <t>2018-11-16 10-35-26.csv</t>
+  </si>
+  <si>
+    <t>2018-11-16T10:37:03.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T10:37:13.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T10:37:32.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T10:37:43.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T10:37:58.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T10:38:17.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T10:38:40.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T10:38:51.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T10:39:01.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T10:39:23.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T10:39:33.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T10:39:43.00</t>
+  </si>
+  <si>
+    <t>Front Left Impact</t>
+  </si>
+  <si>
+    <t>2018-11-16 12-24-07.csv</t>
+  </si>
+  <si>
+    <t>2018-11-16T12:26:21.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T12:26:29.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T12:26:44.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T12:27:13.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T12:27:24.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T12:27:42.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T12:28:00.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T12:28:57.00</t>
+  </si>
+  <si>
+    <t>2018-11-16 16-29-47.csv</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:32:00.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:32:28.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:32:37.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:32:45.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:32:55.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:33:32.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:33:15.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:33:43.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:34:04.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:34:12.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:34:19.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:34:26.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:34:42.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:34:48.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T16:34:33.00</t>
+  </si>
+  <si>
+    <t>2018-11-17 12-37-40.csv</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:40:22.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:39:09.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:39:16.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:39:24.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:39:33.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:40:28.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:40:47.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:41:03.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:41:11.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:41:20.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:41:28.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:41:38.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:41:46.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:42:28.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:42:38.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T12:40:34.00</t>
   </si>
 </sst>
 </file>
@@ -433,11 +598,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,10 +969,10 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -828,16 +993,16 @@
       <c r="F3">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -860,10 +1025,10 @@
       <c r="F4">
         <v>6</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="1">
@@ -894,19 +1059,19 @@
       <c r="F5">
         <v>6</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
+      <c r="I5" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J5" s="1">
         <f>COUNTIFS(C:C,H5,D:D,$J$3)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1">
         <f>COUNTIFS(C:C,H5,D:D,$K$3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -928,19 +1093,19 @@
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J6" s="1">
         <f>COUNTIFS(C:C,H6,D:D,$J$3)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1">
         <f>COUNTIFS(C:C,H6,D:D,$K$3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -962,19 +1127,19 @@
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>4</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>23</v>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ref="J7:J12" si="0">COUNTIFS(C:C,H7,D:D,$J$3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ref="K7:K12" si="1">COUNTIFS(C:C,H7,D:D,$K$3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -996,19 +1161,19 @@
       <c r="F8">
         <v>6</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>24</v>
+      <c r="I8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1025,24 +1190,24 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
-      <c r="H9" s="4">
-        <v>6</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>25</v>
+      <c r="H9" s="3">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1059,16 +1224,16 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
-      <c r="H10" s="4">
-        <v>7</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>26</v>
+      <c r="H10" s="3">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
@@ -1093,24 +1258,24 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>8</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>28</v>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1127,16 +1292,16 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>9</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>27</v>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
@@ -1161,12 +1326,12 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1182,7 +1347,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -1202,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1219,10 +1384,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1239,10 +1404,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -1262,7 +1427,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -1282,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -1302,7 +1467,7 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -1322,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -1339,10 +1504,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -1362,7 +1527,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -1382,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -1402,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -1422,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -1439,10 +1604,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -1459,10 +1624,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -1482,7 +1647,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -1502,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -1522,7 +1687,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -1542,7 +1707,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -1562,7 +1727,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -1579,10 +1744,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -1602,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <v>6</v>
@@ -1622,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36">
         <v>6</v>
@@ -1642,7 +1807,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -1662,7 +1827,7 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -1682,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -1699,10 +1864,10 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -1722,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -1739,10 +1904,10 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -1753,16 +1918,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
         <v>63</v>
-      </c>
-      <c r="C43">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>64</v>
       </c>
       <c r="F43">
         <v>6</v>
@@ -1773,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1782,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44">
         <v>6</v>
@@ -1793,16 +1958,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -1813,16 +1978,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -1833,7 +1998,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -1842,7 +2007,7 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -1853,7 +2018,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -1862,7 +2027,7 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -1873,7 +2038,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -1882,7 +2047,7 @@
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -1893,7 +2058,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -1902,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -1913,7 +2078,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -1922,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -1933,16 +2098,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -1953,7 +2118,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -1962,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -1973,7 +2138,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -1982,7 +2147,7 @@
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -1993,16 +2158,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -2013,7 +2178,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -2022,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -2033,16 +2198,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -2053,7 +2218,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58">
         <v>7</v>
@@ -2062,7 +2227,7 @@
         <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F58">
         <v>6</v>
@@ -2073,16 +2238,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F59">
         <v>6</v>
@@ -2093,86 +2258,1118 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="C60">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>102</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>103</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="F60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="B82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>105</v>
+      </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="F61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>106</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="F62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>107</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="F63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64">
-        <v>7</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>109</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="F64">
+      <c r="B86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>110</v>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>111</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>112</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>113</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>114</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>115</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>116</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>117</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>118</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" t="s">
+        <v>119</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s">
+        <v>120</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>121</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>128</v>
+      </c>
+      <c r="F102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>130</v>
+      </c>
+      <c r="F105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" t="s">
+        <v>140</v>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>131</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
+        <v>132</v>
+      </c>
+      <c r="F108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" t="s">
+        <v>133</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>124</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>135</v>
+      </c>
+      <c r="F111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>136</v>
+      </c>
+      <c r="F112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>137</v>
+      </c>
+      <c r="F113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>138</v>
+      </c>
+      <c r="F114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" t="s">
+        <v>139</v>
+      </c>
+      <c r="F115">
         <v>6</v>
       </c>
     </row>

--- a/Data2/DataDefinitions.xlsx
+++ b/Data2/DataDefinitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10425" yWindow="-195" windowWidth="27030" windowHeight="11115"/>
+    <workbookView xWindow="585" yWindow="180" windowWidth="27030" windowHeight="11115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="173">
   <si>
     <t>DataFile</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Gust from Right</t>
   </si>
   <si>
-    <t>Gust from Back</t>
-  </si>
-  <si>
     <t>Gust from Front</t>
   </si>
   <si>
@@ -439,9 +436,6 @@
     <t>2018-11-16T12:28:00.00</t>
   </si>
   <si>
-    <t>2018-11-16T12:28:57.00</t>
-  </si>
-  <si>
     <t>2018-11-16 16-29-47.csv</t>
   </si>
   <si>
@@ -539,6 +533,108 @@
   </si>
   <si>
     <t>2018-11-17T12:40:34.00</t>
+  </si>
+  <si>
+    <t>BL_2018-11-17 16-44-33.csv</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:46:02.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:46:16.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:46:09.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:46:31.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:46:59.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:47:19.00</t>
+  </si>
+  <si>
+    <t>FL_2018-11-17 16-48-51.csv</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:49:50.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:49:58.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:50:33.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:50:42.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:50:50.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:50:57.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:51:05.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:51:13.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:51:29.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:51:37.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:51:45.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:51:52.00</t>
+  </si>
+  <si>
+    <t>BR_2018-11-17 16-09-10.csv</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:41:28.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:41:36.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:41:56.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:42:07.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:42:14.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:42:22.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:42:44.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:42:51.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:43:15.00</t>
+  </si>
+  <si>
+    <t>2018-11-17T16:43:21.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T12:26:00.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T12:26:06.00</t>
+  </si>
+  <si>
+    <t>2018-11-16T12:27:46.00</t>
   </si>
 </sst>
 </file>
@@ -904,16 +1000,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
@@ -1032,11 +1128,11 @@
         <v>19</v>
       </c>
       <c r="J4" s="1">
-        <f>COUNTIFS(C:C,H4,D:D,$J$3)</f>
-        <v>5</v>
+        <f t="shared" ref="J4:J11" si="0">COUNTIFS(C:C,H4,D:D,$J$3)</f>
+        <v>8</v>
       </c>
       <c r="K4" s="1">
-        <f>COUNTIFS(C:C,H4,D:D,$K$3)</f>
+        <f t="shared" ref="K4:K11" si="1">COUNTIFS(C:C,H4,D:D,$K$3)</f>
         <v>2</v>
       </c>
     </row>
@@ -1051,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1063,15 +1159,15 @@
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="1">
-        <f>COUNTIFS(C:C,H5,D:D,$J$3)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="K5" s="1">
-        <f>COUNTIFS(C:C,H5,D:D,$K$3)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1100,12 +1196,12 @@
         <v>21</v>
       </c>
       <c r="J6" s="1">
-        <f>COUNTIFS(C:C,H6,D:D,$J$3)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="K6" s="1">
-        <f>COUNTIFS(C:C,H6,D:D,$K$3)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1119,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1134,12 +1230,12 @@
         <v>22</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J12" si="0">COUNTIFS(C:C,H7,D:D,$J$3)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" ref="K7:K12" si="1">COUNTIFS(C:C,H7,D:D,$K$3)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1153,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1169,11 +1265,11 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1181,16 +1277,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1215,16 +1311,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1249,16 +1345,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -1267,15 +1363,15 @@
         <v>8</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1283,50 +1379,40 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="H12" s="3">
-        <v>9</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -1338,16 +1424,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -1358,16 +1444,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1378,16 +1464,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1398,16 +1484,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -1418,16 +1504,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -1438,16 +1524,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -1458,16 +1544,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -1478,16 +1564,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -1498,16 +1584,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -1518,16 +1604,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -1538,16 +1624,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -1558,16 +1644,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -1578,16 +1664,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -1598,16 +1684,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -1618,16 +1704,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -1638,16 +1724,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -1658,16 +1744,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -1678,16 +1764,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -1698,16 +1784,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -1718,16 +1804,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -1738,16 +1824,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -1758,16 +1844,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="F35">
         <v>6</v>
@@ -1778,16 +1864,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F36">
         <v>6</v>
@@ -1798,16 +1884,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -1818,16 +1904,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -1838,16 +1924,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -1858,16 +1944,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -1878,16 +1964,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -1898,16 +1984,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -1918,16 +2004,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="F43">
         <v>6</v>
@@ -1938,16 +2024,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="F44">
         <v>6</v>
@@ -1958,16 +2044,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -1978,16 +2064,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -1998,16 +2084,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -2018,16 +2104,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -2038,16 +2124,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -2058,16 +2144,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -2078,16 +2164,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -2098,16 +2184,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -2118,16 +2204,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -2138,16 +2224,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -2158,16 +2244,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -2178,16 +2264,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -2198,16 +2284,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -2218,16 +2304,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="F58">
         <v>6</v>
@@ -2238,16 +2324,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="F59">
         <v>6</v>
@@ -2258,16 +2344,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="F60">
         <v>6</v>
@@ -2278,16 +2364,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -2298,16 +2384,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -2318,16 +2404,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -2338,16 +2424,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2358,16 +2444,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -2378,16 +2464,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -2398,16 +2484,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="F67">
         <v>6</v>
@@ -2418,16 +2504,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="F68">
         <v>6</v>
@@ -2438,16 +2524,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -2458,16 +2544,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="F70">
         <v>6</v>
@@ -2478,16 +2564,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F71">
         <v>6</v>
@@ -2498,16 +2584,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="F72">
         <v>6</v>
@@ -2518,16 +2604,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
         <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="F73">
         <v>6</v>
@@ -2538,16 +2624,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -2558,16 +2644,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="F75">
         <v>6</v>
@@ -2578,16 +2664,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="F76">
         <v>6</v>
@@ -2598,16 +2684,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
         <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="F77">
         <v>6</v>
@@ -2618,16 +2704,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="F78">
         <v>6</v>
@@ -2638,16 +2724,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
         <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="F79">
         <v>6</v>
@@ -2658,16 +2744,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="F80">
         <v>6</v>
@@ -2678,16 +2764,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="F81">
         <v>6</v>
@@ -2698,16 +2784,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="F82">
         <v>6</v>
@@ -2718,16 +2804,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="F83">
         <v>6</v>
@@ -2738,16 +2824,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="F84">
         <v>6</v>
@@ -2758,16 +2844,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="F85">
         <v>6</v>
@@ -2778,16 +2864,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -2798,16 +2884,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="F87">
         <v>6</v>
@@ -2818,16 +2904,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="F88">
         <v>6</v>
@@ -2838,16 +2924,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="F89">
         <v>6</v>
@@ -2858,16 +2944,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F90">
         <v>6</v>
@@ -2878,16 +2964,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
         <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="F91">
         <v>6</v>
@@ -2898,16 +2984,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
         <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="F92">
         <v>6</v>
@@ -2918,16 +3004,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="F93">
         <v>6</v>
@@ -2938,16 +3024,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="F94">
         <v>6</v>
@@ -2958,16 +3044,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="F95">
         <v>6</v>
@@ -2978,16 +3064,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
         <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="F96">
         <v>6</v>
@@ -2998,16 +3084,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
       </c>
       <c r="E97" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="F97">
         <v>6</v>
@@ -3018,16 +3104,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E98" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="F98">
         <v>6</v>
@@ -3038,16 +3124,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
         <v>6</v>
       </c>
       <c r="E99" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="F99">
         <v>6</v>
@@ -3058,16 +3144,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="F100">
         <v>6</v>
@@ -3078,16 +3164,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
         <v>6</v>
       </c>
       <c r="E101" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="F101">
         <v>6</v>
@@ -3098,16 +3184,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="F102">
         <v>6</v>
@@ -3118,16 +3204,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
         <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="F103">
         <v>6</v>
@@ -3138,16 +3224,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="F104">
         <v>6</v>
@@ -3158,16 +3244,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s">
         <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="F105">
         <v>6</v>
@@ -3178,16 +3264,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>6</v>
       </c>
       <c r="E106" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="F106">
         <v>6</v>
@@ -3198,16 +3284,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="F107">
         <v>6</v>
@@ -3218,16 +3304,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
         <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F108">
         <v>6</v>
@@ -3238,16 +3324,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="F109">
         <v>6</v>
@@ -3258,16 +3344,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
         <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F110">
         <v>6</v>
@@ -3278,16 +3364,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="F111">
         <v>6</v>
@@ -3298,16 +3384,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="F112">
         <v>6</v>
@@ -3318,16 +3404,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
         <v>6</v>
       </c>
       <c r="E113" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="F113">
         <v>6</v>
@@ -3338,16 +3424,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="F114">
         <v>6</v>
@@ -3358,18 +3444,618 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" t="s">
+        <v>65</v>
+      </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>66</v>
+      </c>
+      <c r="F116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" t="s">
+        <v>67</v>
+      </c>
+      <c r="F117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>61</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" t="s">
+        <v>68</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>61</v>
+      </c>
+      <c r="C119">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>70</v>
+      </c>
+      <c r="F120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" t="s">
+        <v>71</v>
+      </c>
+      <c r="F121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" t="s">
+        <v>72</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>61</v>
+      </c>
+      <c r="C123">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" t="s">
+        <v>73</v>
+      </c>
+      <c r="F123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>74</v>
+      </c>
+      <c r="F124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="C115">
-        <v>4</v>
-      </c>
-      <c r="D115" t="s">
-        <v>6</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="B125" t="s">
+        <v>61</v>
+      </c>
+      <c r="C125">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" t="s">
+        <v>75</v>
+      </c>
+      <c r="F125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>76</v>
+      </c>
+      <c r="F126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" t="s">
+        <v>77</v>
+      </c>
+      <c r="F127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" t="s">
+        <v>78</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>61</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>61</v>
+      </c>
+      <c r="C130">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" t="s">
+        <v>80</v>
+      </c>
+      <c r="F130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>61</v>
+      </c>
+      <c r="C131">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" t="s">
+        <v>81</v>
+      </c>
+      <c r="F131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>61</v>
+      </c>
+      <c r="C132">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>82</v>
+      </c>
+      <c r="F132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>61</v>
+      </c>
+      <c r="C133">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" t="s">
+        <v>83</v>
+      </c>
+      <c r="F133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" t="s">
+        <v>85</v>
+      </c>
+      <c r="F134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>84</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" t="s">
+        <v>86</v>
+      </c>
+      <c r="F135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>84</v>
+      </c>
+      <c r="C136">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" t="s">
+        <v>87</v>
+      </c>
+      <c r="F136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>84</v>
+      </c>
+      <c r="C137">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>88</v>
+      </c>
+      <c r="F137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>89</v>
+      </c>
+      <c r="F138">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" t="s">
+        <v>90</v>
+      </c>
+      <c r="F139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>139</v>
       </c>
-      <c r="F115">
+      <c r="B140" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" t="s">
+        <v>91</v>
+      </c>
+      <c r="F140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>84</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" t="s">
+        <v>92</v>
+      </c>
+      <c r="F141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" t="s">
+        <v>93</v>
+      </c>
+      <c r="F142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" t="s">
+        <v>94</v>
+      </c>
+      <c r="F143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>84</v>
+      </c>
+      <c r="C144">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>95</v>
+      </c>
+      <c r="F144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" t="s">
+        <v>96</v>
+      </c>
+      <c r="F145">
         <v>6</v>
       </c>
     </row>

--- a/Data2/DataDefinitions.xlsx
+++ b/Data2/DataDefinitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="180" windowWidth="27030" windowHeight="11115"/>
+    <workbookView xWindow="28515" yWindow="0" windowWidth="28215" windowHeight="11115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="199">
   <si>
     <t>DataFile</t>
   </si>
@@ -635,13 +635,91 @@
   </si>
   <si>
     <t>2018-11-16T12:27:46.00</t>
+  </si>
+  <si>
+    <t>2018-11-28 18-44-20.csv</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:45:23.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:45:35.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:45:29.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:45:43.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:45:50.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:45:58.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:46:05.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:46:22.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:46:29.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:46:46.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:46:54.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:47:11.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:47:51.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:48:00.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:48:10.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:48:23.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:48:33.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:48:44.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:45:14.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:47:15.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:47:40.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:48:27.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:48:38.00</t>
+  </si>
+  <si>
+    <t>2018-11-28T18:48:04.00</t>
+  </si>
+  <si>
+    <t>%Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,6 +748,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -688,10 +773,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -699,9 +785,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1000,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1099,7 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="42.42578125" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
@@ -1021,7 +1109,7 @@
     <col min="14" max="14" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1070,7 +1158,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1101,8 +1189,11 @@
       <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1113,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1129,14 +1220,18 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" ref="J4:J11" si="0">COUNTIFS(C:C,H4,D:D,$J$3)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K11" si="1">COUNTIFS(C:C,H4,D:D,$K$3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5">
+        <f>K4/J4</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1147,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1169,8 +1264,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="5">
+        <f t="shared" ref="L5:L11" si="2">K5/J5</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1197,14 +1296,18 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1237,8 +1340,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1271,8 +1378,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1299,14 +1410,18 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25925925925925924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1339,8 +1454,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1367,28 +1486,32 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -1398,82 +1521,82 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1484,16 +1607,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -1513,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -1533,7 +1656,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -1550,10 +1673,10 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -1570,10 +1693,10 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -1593,7 +1716,7 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -1613,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -1624,16 +1747,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -1644,16 +1767,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -1664,7 +1787,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1673,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -1684,7 +1807,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1693,7 +1816,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -1704,16 +1827,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -1724,16 +1847,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -1753,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -1764,7 +1887,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1773,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -1784,16 +1907,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -1804,7 +1927,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1813,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -1824,7 +1947,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1833,7 +1956,7 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -1844,7 +1967,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1853,7 +1976,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F35">
         <v>6</v>
@@ -1864,7 +1987,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1873,7 +1996,7 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F36">
         <v>6</v>
@@ -1893,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -1907,13 +2030,13 @@
         <v>106</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -1927,13 +2050,13 @@
         <v>106</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -1947,13 +2070,13 @@
         <v>106</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -1967,13 +2090,13 @@
         <v>106</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -1987,13 +2110,13 @@
         <v>106</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -2007,13 +2130,13 @@
         <v>106</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F43">
         <v>6</v>
@@ -2030,10 +2153,10 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F44">
         <v>6</v>
@@ -2053,7 +2176,7 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -2064,16 +2187,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -2084,16 +2207,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -2104,16 +2227,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -2124,16 +2247,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -2144,16 +2267,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -2164,16 +2287,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -2184,16 +2307,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -2204,16 +2327,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -2224,16 +2347,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -2244,16 +2367,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -2264,16 +2387,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -2284,16 +2407,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -2304,16 +2427,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="F58">
         <v>6</v>
@@ -2324,16 +2447,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="F59">
         <v>6</v>
@@ -2344,16 +2467,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="F60">
         <v>6</v>
@@ -2364,16 +2487,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -2384,16 +2507,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -2404,16 +2527,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -2424,16 +2547,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2444,16 +2567,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -2464,16 +2587,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -2484,16 +2607,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F67">
         <v>6</v>
@@ -2504,16 +2627,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F68">
         <v>6</v>
@@ -2524,16 +2647,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -2544,16 +2667,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="F70">
         <v>6</v>
@@ -2564,16 +2687,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="F71">
         <v>6</v>
@@ -2584,16 +2707,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="F72">
         <v>6</v>
@@ -2604,16 +2727,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="F73">
         <v>6</v>
@@ -2624,16 +2747,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -2644,16 +2767,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="s">
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="F75">
         <v>6</v>
@@ -2664,16 +2787,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="s">
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="F76">
         <v>6</v>
@@ -2684,16 +2807,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
         <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="F77">
         <v>6</v>
@@ -2704,16 +2827,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="F78">
         <v>6</v>
@@ -2724,16 +2847,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
         <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="F79">
         <v>6</v>
@@ -2744,16 +2867,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="F80">
         <v>6</v>
@@ -2764,16 +2887,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
         <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="F81">
         <v>6</v>
@@ -2784,16 +2907,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="F82">
         <v>6</v>
@@ -2804,16 +2927,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="F83">
         <v>6</v>
@@ -2824,16 +2947,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="F84">
         <v>6</v>
@@ -2844,16 +2967,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="F85">
         <v>6</v>
@@ -2864,16 +2987,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -2884,16 +3007,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="F87">
         <v>6</v>
@@ -2904,16 +3027,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="F88">
         <v>6</v>
@@ -2924,16 +3047,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="F89">
         <v>6</v>
@@ -2944,16 +3067,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="F90">
         <v>6</v>
@@ -2964,16 +3087,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" t="s">
         <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="F91">
         <v>6</v>
@@ -2984,16 +3107,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" t="s">
         <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="F92">
         <v>6</v>
@@ -3004,16 +3127,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="F93">
         <v>6</v>
@@ -3024,16 +3147,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="F94">
         <v>6</v>
@@ -3044,16 +3167,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="F95">
         <v>6</v>
@@ -3073,7 +3196,7 @@
         <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F96">
         <v>6</v>
@@ -3090,10 +3213,10 @@
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F97">
         <v>6</v>
@@ -3113,7 +3236,7 @@
         <v>6</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F98">
         <v>6</v>
@@ -3133,7 +3256,7 @@
         <v>6</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F99">
         <v>6</v>
@@ -3150,10 +3273,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E100" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F100">
         <v>6</v>
@@ -3173,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="E101" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F101">
         <v>6</v>
@@ -3190,10 +3313,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F102">
         <v>6</v>
@@ -3213,7 +3336,7 @@
         <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F103">
         <v>6</v>
@@ -3233,7 +3356,7 @@
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F104">
         <v>6</v>
@@ -3253,7 +3376,7 @@
         <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F105">
         <v>6</v>
@@ -3273,7 +3396,7 @@
         <v>6</v>
       </c>
       <c r="E106" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F106">
         <v>6</v>
@@ -3293,7 +3416,7 @@
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F107">
         <v>6</v>
@@ -3313,7 +3436,7 @@
         <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F108">
         <v>6</v>
@@ -3333,7 +3456,7 @@
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F109">
         <v>6</v>
@@ -3353,7 +3476,7 @@
         <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F110">
         <v>6</v>
@@ -3373,7 +3496,7 @@
         <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F111">
         <v>6</v>
@@ -3384,16 +3507,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F112">
         <v>6</v>
@@ -3404,16 +3527,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
         <v>6</v>
       </c>
       <c r="E113" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F113">
         <v>6</v>
@@ -3424,16 +3547,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F114">
         <v>6</v>
@@ -3444,16 +3567,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
         <v>6</v>
       </c>
       <c r="E115" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F115">
         <v>6</v>
@@ -3464,16 +3587,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s">
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F116">
         <v>6</v>
@@ -3484,16 +3607,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F117">
         <v>6</v>
@@ -3504,16 +3627,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
         <v>6</v>
       </c>
       <c r="E118" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F118">
         <v>6</v>
@@ -3524,16 +3647,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C119">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
         <v>6</v>
       </c>
       <c r="E119" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F119">
         <v>6</v>
@@ -3544,16 +3667,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C120">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F120">
         <v>6</v>
@@ -3564,16 +3687,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C121">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
         <v>6</v>
       </c>
       <c r="E121" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F121">
         <v>6</v>
@@ -3584,16 +3707,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F122">
         <v>6</v>
@@ -3604,16 +3727,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C123">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D123" t="s">
         <v>6</v>
       </c>
       <c r="E123" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F123">
         <v>6</v>
@@ -3624,16 +3747,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C124">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F124">
         <v>6</v>
@@ -3644,16 +3767,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C125">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D125" t="s">
         <v>6</v>
       </c>
       <c r="E125" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F125">
         <v>6</v>
@@ -3664,16 +3787,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C126">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E126" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F126">
         <v>6</v>
@@ -3684,16 +3807,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D127" t="s">
         <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F127">
         <v>6</v>
@@ -3704,16 +3827,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D128" t="s">
         <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F128">
         <v>6</v>
@@ -3724,16 +3847,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -3753,7 +3876,7 @@
         <v>6</v>
       </c>
       <c r="E130" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F130">
         <v>6</v>
@@ -3773,7 +3896,7 @@
         <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F131">
         <v>6</v>
@@ -3790,10 +3913,10 @@
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E132" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F132">
         <v>6</v>
@@ -3810,10 +3933,10 @@
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F133">
         <v>6</v>
@@ -3824,16 +3947,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C134">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D134" t="s">
         <v>6</v>
       </c>
       <c r="E134" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F134">
         <v>6</v>
@@ -3844,16 +3967,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D135" t="s">
         <v>6</v>
       </c>
       <c r="E135" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F135">
         <v>6</v>
@@ -3864,16 +3987,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C136">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D136" t="s">
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F136">
         <v>6</v>
@@ -3884,16 +4007,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C137">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D137" t="s">
         <v>6</v>
       </c>
       <c r="E137" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F137">
         <v>6</v>
@@ -3904,16 +4027,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C138">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F138">
         <v>6</v>
@@ -3924,16 +4047,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
         <v>6</v>
       </c>
       <c r="E139" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F139">
         <v>6</v>
@@ -3944,16 +4067,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C140">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
         <v>6</v>
       </c>
       <c r="E140" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F140">
         <v>6</v>
@@ -3964,16 +4087,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D141" t="s">
         <v>6</v>
       </c>
       <c r="E141" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F141">
         <v>6</v>
@@ -3984,16 +4107,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D142" t="s">
         <v>6</v>
       </c>
       <c r="E142" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F142">
         <v>6</v>
@@ -4004,16 +4127,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C143">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -4024,16 +4147,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F144">
         <v>6</v>
@@ -4044,18 +4167,498 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" t="s">
+        <v>77</v>
+      </c>
+      <c r="F145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" t="s">
+        <v>78</v>
+      </c>
+      <c r="F146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>61</v>
+      </c>
+      <c r="C147">
+        <v>7</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>61</v>
+      </c>
+      <c r="C148">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" t="s">
+        <v>80</v>
+      </c>
+      <c r="F148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>61</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" t="s">
+        <v>81</v>
+      </c>
+      <c r="F149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>61</v>
+      </c>
+      <c r="C150">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>82</v>
+      </c>
+      <c r="F150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>61</v>
+      </c>
+      <c r="C151">
+        <v>7</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" t="s">
+        <v>83</v>
+      </c>
+      <c r="F151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
         <v>84</v>
       </c>
-      <c r="C145">
+      <c r="C152">
         <v>8</v>
       </c>
-      <c r="D145" t="s">
-        <v>6</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="D152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" t="s">
+        <v>85</v>
+      </c>
+      <c r="F152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>86</v>
+      </c>
+      <c r="F153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>84</v>
+      </c>
+      <c r="C154">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>87</v>
+      </c>
+      <c r="F154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>84</v>
+      </c>
+      <c r="C155">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" t="s">
+        <v>88</v>
+      </c>
+      <c r="F155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" t="s">
+        <v>89</v>
+      </c>
+      <c r="F156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>84</v>
+      </c>
+      <c r="C157">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" t="s">
+        <v>90</v>
+      </c>
+      <c r="F157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>84</v>
+      </c>
+      <c r="C158">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>91</v>
+      </c>
+      <c r="F158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>84</v>
+      </c>
+      <c r="C159">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" t="s">
+        <v>92</v>
+      </c>
+      <c r="F159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" t="s">
+        <v>93</v>
+      </c>
+      <c r="F160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>84</v>
+      </c>
+      <c r="C161">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" t="s">
+        <v>94</v>
+      </c>
+      <c r="F161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" t="s">
+        <v>95</v>
+      </c>
+      <c r="F162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" t="s">
         <v>96</v>
       </c>
-      <c r="F145">
+      <c r="F163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164">
+        <v>8</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" t="s">
+        <v>186</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>173</v>
+      </c>
+      <c r="C165">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" t="s">
+        <v>187</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>173</v>
+      </c>
+      <c r="C166">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" t="s">
+        <v>188</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>173</v>
+      </c>
+      <c r="C167">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" t="s">
+        <v>189</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168">
+        <v>8</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" t="s">
+        <v>190</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" t="s">
+        <v>191</v>
+      </c>
+      <c r="F169">
         <v>6</v>
       </c>
     </row>
